--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubofurto/cv123013a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubofurto/cv123013a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>total(1)</t>
   </si>
@@ -25,7 +25,7 @@
     <t>cor ou raça</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
+    <t>total</t>
   </si>
   <si>
     <t>homens</t>
@@ -49,16 +49,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -512,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,31 +582,52 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B5">
+        <v>1.145661632051496</v>
+      </c>
+      <c r="C5">
+        <v>1.265163385354188</v>
+      </c>
+      <c r="D5">
+        <v>1.386737734463085</v>
+      </c>
+      <c r="E5">
+        <v>1.444034213192915</v>
+      </c>
+      <c r="F5">
+        <v>1.430880146820546</v>
+      </c>
+      <c r="G5">
+        <v>2.765848355624979</v>
+      </c>
+      <c r="H5">
+        <v>1.509338598134232</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1.145661632051496</v>
+        <v>4.297580439408661</v>
       </c>
       <c r="C6">
-        <v>1.265163385354188</v>
+        <v>4.216501672575616</v>
       </c>
       <c r="D6">
-        <v>1.386737734463085</v>
+        <v>6.276147032911989</v>
       </c>
       <c r="E6">
-        <v>1.444034213192915</v>
+        <v>5.675881402847286</v>
       </c>
       <c r="F6">
-        <v>1.430880146820546</v>
+        <v>5.432036079185381</v>
       </c>
       <c r="G6">
-        <v>2.765848355624979</v>
+        <v>11.74385571675832</v>
       </c>
       <c r="H6">
-        <v>1.509338598134232</v>
+        <v>5.579629521400621</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -620,56 +635,77 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>4.297580439408661</v>
+        <v>3.123548304552231</v>
       </c>
       <c r="C7">
-        <v>4.216501672575616</v>
+        <v>3.396498960883881</v>
       </c>
       <c r="D7">
-        <v>6.276147032911989</v>
+        <v>3.609101783881416</v>
       </c>
       <c r="E7">
-        <v>5.675881402847286</v>
+        <v>4.320366043636731</v>
       </c>
       <c r="F7">
-        <v>5.432036079185381</v>
+        <v>3.406752599287257</v>
       </c>
       <c r="G7">
-        <v>11.74385571675832</v>
+        <v>6.110414024098036</v>
       </c>
       <c r="H7">
-        <v>5.579629521400621</v>
+        <v>3.572243740323201</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B8">
+        <v>7.457958762790273</v>
+      </c>
+      <c r="C8">
+        <v>7.658387020654095</v>
+      </c>
+      <c r="D8">
+        <v>9.606645532086798</v>
+      </c>
+      <c r="E8">
+        <v>10.38675171220855</v>
+      </c>
+      <c r="F8">
+        <v>7.539224660921411</v>
+      </c>
+      <c r="G8">
+        <v>14.89307929848607</v>
+      </c>
+      <c r="H8">
+        <v>8.142116729175285</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9">
-        <v>3.123548304552231</v>
+        <v>7.60708826747242</v>
       </c>
       <c r="C9">
-        <v>3.396498960883881</v>
+        <v>6.944665715561525</v>
       </c>
       <c r="D9">
-        <v>3.609101783881416</v>
+        <v>11.0027345417492</v>
       </c>
       <c r="E9">
-        <v>4.320366043636731</v>
+        <v>9.880831849054992</v>
       </c>
       <c r="F9">
-        <v>3.406752599287257</v>
+        <v>7.711285158561485</v>
       </c>
       <c r="G9">
-        <v>6.110414024098036</v>
+        <v>21.59150300596998</v>
       </c>
       <c r="H9">
-        <v>3.572243740323201</v>
+        <v>7.992511698456572</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -677,25 +713,25 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>7.457958762790273</v>
+        <v>8.944400617505163</v>
       </c>
       <c r="C10">
-        <v>7.658387020654095</v>
+        <v>9.820182416040794</v>
       </c>
       <c r="D10">
-        <v>9.606645532086798</v>
+        <v>9.586954252762249</v>
       </c>
       <c r="E10">
-        <v>10.38675171220855</v>
+        <v>13.70081996185543</v>
       </c>
       <c r="F10">
-        <v>7.539224660921411</v>
+        <v>8.556651281655437</v>
       </c>
       <c r="G10">
-        <v>14.89307929848607</v>
+        <v>18.68413510416105</v>
       </c>
       <c r="H10">
-        <v>8.142116729175285</v>
+        <v>8.793969772632277</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -703,25 +739,25 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>7.60708826747242</v>
+        <v>8.979938493501459</v>
       </c>
       <c r="C11">
-        <v>6.944665715561525</v>
+        <v>10.00235353242161</v>
       </c>
       <c r="D11">
-        <v>11.0027345417492</v>
+        <v>10.84741425613178</v>
       </c>
       <c r="E11">
-        <v>9.880831849054992</v>
+        <v>18.42982292309043</v>
       </c>
       <c r="F11">
-        <v>7.711285158561485</v>
+        <v>8.351106271757525</v>
       </c>
       <c r="G11">
-        <v>21.59150300596998</v>
+        <v>20.16261215489956</v>
       </c>
       <c r="H11">
-        <v>7.992511698456572</v>
+        <v>9.207110581644994</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -729,25 +765,25 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>8.944400617505163</v>
+        <v>4.393502067887344</v>
       </c>
       <c r="C12">
-        <v>9.820182416040794</v>
+        <v>4.760433628429289</v>
       </c>
       <c r="D12">
-        <v>9.586954252762249</v>
+        <v>5.174125707414571</v>
       </c>
       <c r="E12">
-        <v>13.70081996185543</v>
+        <v>6.112110257099447</v>
       </c>
       <c r="F12">
-        <v>8.556651281655437</v>
+        <v>4.9586032772923</v>
       </c>
       <c r="G12">
-        <v>18.68413510416105</v>
+        <v>8.752733619456272</v>
       </c>
       <c r="H12">
-        <v>8.793969772632277</v>
+        <v>5.243627774121797</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -755,25 +791,25 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>8.979938493501459</v>
+        <v>15.65351176339457</v>
       </c>
       <c r="C13">
-        <v>10.00235353242161</v>
+        <v>17.0237319737684</v>
       </c>
       <c r="D13">
-        <v>10.84741425613178</v>
+        <v>17.2186419645014</v>
       </c>
       <c r="E13">
-        <v>18.42982292309043</v>
+        <v>18.88739764800624</v>
       </c>
       <c r="F13">
-        <v>8.351106271757525</v>
+        <v>15.82435789650623</v>
       </c>
       <c r="G13">
-        <v>20.16261215489956</v>
+        <v>21.78650682986609</v>
       </c>
       <c r="H13">
-        <v>9.207110581644994</v>
+        <v>16.75022803025105</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -781,25 +817,25 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>4.393502067887344</v>
+        <v>11.69076698192822</v>
       </c>
       <c r="C14">
-        <v>4.760433628429289</v>
+        <v>13.03557081080179</v>
       </c>
       <c r="D14">
-        <v>5.174125707414571</v>
+        <v>12.20618274596034</v>
       </c>
       <c r="E14">
-        <v>6.112110257099447</v>
+        <v>15.23154851267902</v>
       </c>
       <c r="F14">
-        <v>4.9586032772923</v>
+        <v>13.22871678691558</v>
       </c>
       <c r="G14">
-        <v>8.752733619456272</v>
+        <v>22.29503172535446</v>
       </c>
       <c r="H14">
-        <v>5.243627774121797</v>
+        <v>12.07851412239344</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -807,25 +843,25 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>15.65351176339457</v>
+        <v>2.768933933325164</v>
       </c>
       <c r="C15">
-        <v>17.0237319737684</v>
+        <v>2.926267811715906</v>
       </c>
       <c r="D15">
-        <v>17.2186419645014</v>
+        <v>3.04981893716435</v>
       </c>
       <c r="E15">
-        <v>18.88739764800624</v>
+        <v>2.906069524431661</v>
       </c>
       <c r="F15">
-        <v>15.82435789650623</v>
+        <v>3.109880921357567</v>
       </c>
       <c r="G15">
-        <v>21.78650682986609</v>
+        <v>4.979011822951472</v>
       </c>
       <c r="H15">
-        <v>16.75022803025105</v>
+        <v>3.260043206024609</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -833,25 +869,25 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>11.69076698192822</v>
+        <v>15.20955405204762</v>
       </c>
       <c r="C16">
-        <v>13.03557081080179</v>
+        <v>15.22714806218055</v>
       </c>
       <c r="D16">
-        <v>12.20618274596034</v>
+        <v>16.21997107652417</v>
       </c>
       <c r="E16">
-        <v>15.23154851267902</v>
+        <v>15.93966211137762</v>
       </c>
       <c r="F16">
-        <v>13.22871678691558</v>
+        <v>15.4550797177606</v>
       </c>
       <c r="G16">
-        <v>22.29503172535446</v>
+        <v>21.54091290016747</v>
       </c>
       <c r="H16">
-        <v>12.07851412239344</v>
+        <v>16.23272055127401</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -859,25 +895,25 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>2.768933933325164</v>
+        <v>10.34036632483823</v>
       </c>
       <c r="C17">
-        <v>2.926267811715906</v>
+        <v>11.27373939805634</v>
       </c>
       <c r="D17">
-        <v>3.04981893716435</v>
+        <v>11.58923161080173</v>
       </c>
       <c r="E17">
-        <v>2.906069524431661</v>
+        <v>11.76481833365929</v>
       </c>
       <c r="F17">
-        <v>3.109880921357567</v>
+        <v>11.67973651535516</v>
       </c>
       <c r="G17">
-        <v>4.979011822951472</v>
+        <v>26.46549742821706</v>
       </c>
       <c r="H17">
-        <v>3.260043206024609</v>
+        <v>12.04434727190536</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -885,25 +921,25 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>15.20955405204762</v>
+        <v>4.349682815868399</v>
       </c>
       <c r="C18">
-        <v>15.22714806218055</v>
+        <v>4.929714431136257</v>
       </c>
       <c r="D18">
-        <v>16.21997107652417</v>
+        <v>4.640269635523548</v>
       </c>
       <c r="E18">
-        <v>15.93966211137762</v>
+        <v>5.834809188856587</v>
       </c>
       <c r="F18">
-        <v>15.4550797177606</v>
+        <v>4.497285850454379</v>
       </c>
       <c r="G18">
-        <v>21.54091290016747</v>
+        <v>15.64627491760727</v>
       </c>
       <c r="H18">
-        <v>16.23272055127401</v>
+        <v>4.27561373773092</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -911,25 +947,25 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>10.34036632483823</v>
+        <v>6.125812387708056</v>
       </c>
       <c r="C19">
-        <v>11.27373939805634</v>
+        <v>6.977121028926367</v>
       </c>
       <c r="D19">
-        <v>11.58923161080173</v>
+        <v>7.251767594590501</v>
       </c>
       <c r="E19">
-        <v>11.76481833365929</v>
+        <v>8.148393818262514</v>
       </c>
       <c r="F19">
-        <v>11.67973651535516</v>
+        <v>7.166670106115424</v>
       </c>
       <c r="G19">
-        <v>26.46549742821706</v>
+        <v>18.27008172813424</v>
       </c>
       <c r="H19">
-        <v>12.04434727190536</v>
+        <v>7.794104843392953</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -937,25 +973,25 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>4.349682815868399</v>
+        <v>10.12123213870121</v>
       </c>
       <c r="C20">
-        <v>4.929714431136257</v>
+        <v>13.00594595819812</v>
       </c>
       <c r="D20">
-        <v>4.640269635523548</v>
+        <v>9.943501186408373</v>
       </c>
       <c r="E20">
-        <v>5.834809188856587</v>
+        <v>10.30763957571084</v>
       </c>
       <c r="F20">
-        <v>4.497285850454379</v>
+        <v>11.57933770869444</v>
       </c>
       <c r="G20">
-        <v>15.64627491760727</v>
+        <v>20.78314564735033</v>
       </c>
       <c r="H20">
-        <v>4.27561373773092</v>
+        <v>12.59212468033353</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -963,25 +999,25 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>6.125812387708056</v>
+        <v>4.392379760276501</v>
       </c>
       <c r="C21">
-        <v>6.977121028926367</v>
+        <v>5.651576903361263</v>
       </c>
       <c r="D21">
-        <v>7.251767594590501</v>
+        <v>4.677499998195931</v>
       </c>
       <c r="E21">
-        <v>8.148393818262514</v>
+        <v>4.722307084842758</v>
       </c>
       <c r="F21">
-        <v>7.166670106115424</v>
+        <v>5.488589585915012</v>
       </c>
       <c r="G21">
-        <v>18.27008172813424</v>
+        <v>10.4873798173822</v>
       </c>
       <c r="H21">
-        <v>7.794104843392953</v>
+        <v>5.607131317771271</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -989,25 +1025,25 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>10.12123213870121</v>
+        <v>7.399851217963419</v>
       </c>
       <c r="C22">
-        <v>13.00594595819812</v>
+        <v>9.38165915125292</v>
       </c>
       <c r="D22">
-        <v>9.943501186408373</v>
+        <v>9.755391187810964</v>
       </c>
       <c r="E22">
-        <v>10.30763957571084</v>
+        <v>12.25830572345939</v>
       </c>
       <c r="F22">
-        <v>11.57933770869444</v>
+        <v>7.7090021251374</v>
       </c>
       <c r="G22">
-        <v>20.78314564735033</v>
+        <v>28.22606602038856</v>
       </c>
       <c r="H22">
-        <v>12.59212468033353</v>
+        <v>7.93372057506274</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1015,25 +1051,25 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>4.392379760276501</v>
+        <v>6.467304310870898</v>
       </c>
       <c r="C23">
-        <v>5.651576903361263</v>
+        <v>6.72029532709101</v>
       </c>
       <c r="D23">
-        <v>4.677499998195931</v>
+        <v>8.488873527621397</v>
       </c>
       <c r="E23">
-        <v>4.722307084842758</v>
+        <v>9.363183560347686</v>
       </c>
       <c r="F23">
-        <v>5.488589585915012</v>
+        <v>7.070459404649831</v>
       </c>
       <c r="G23">
-        <v>10.4873798173822</v>
+        <v>14.8232892405687</v>
       </c>
       <c r="H23">
-        <v>5.607131317771271</v>
+        <v>7.523936259916752</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1041,25 +1077,25 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>7.399851217963419</v>
+        <v>3.997754251131183</v>
       </c>
       <c r="C24">
-        <v>9.38165915125292</v>
+        <v>4.286908679024291</v>
       </c>
       <c r="D24">
-        <v>9.755391187810964</v>
+        <v>4.601522481876817</v>
       </c>
       <c r="E24">
-        <v>12.25830572345939</v>
+        <v>6.665756846126028</v>
       </c>
       <c r="F24">
-        <v>7.7090021251374</v>
+        <v>3.944424363025568</v>
       </c>
       <c r="G24">
-        <v>28.22606602038856</v>
+        <v>4.840944759415868</v>
       </c>
       <c r="H24">
-        <v>7.93372057506274</v>
+        <v>4.783940551731857</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1067,25 +1103,25 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>6.467304310870898</v>
+        <v>1.949783176328272</v>
       </c>
       <c r="C25">
-        <v>6.72029532709101</v>
+        <v>2.105280022224923</v>
       </c>
       <c r="D25">
-        <v>8.488873527621397</v>
+        <v>2.481670136449284</v>
       </c>
       <c r="E25">
-        <v>9.363183560347686</v>
+        <v>2.442748836958846</v>
       </c>
       <c r="F25">
-        <v>7.070459404649831</v>
+        <v>2.405991102300841</v>
       </c>
       <c r="G25">
-        <v>14.8232892405687</v>
+        <v>4.944695869096992</v>
       </c>
       <c r="H25">
-        <v>7.523936259916752</v>
+        <v>2.546514829326131</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1093,25 +1129,25 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>3.997754251131183</v>
+        <v>3.813900408824891</v>
       </c>
       <c r="C26">
-        <v>4.286908679024291</v>
+        <v>4.283469479111059</v>
       </c>
       <c r="D26">
-        <v>4.601522481876817</v>
+        <v>4.466609834644574</v>
       </c>
       <c r="E26">
-        <v>6.665756846126028</v>
+        <v>5.439031193510828</v>
       </c>
       <c r="F26">
-        <v>3.944424363025568</v>
+        <v>4.111096032509511</v>
       </c>
       <c r="G26">
-        <v>4.840944759415868</v>
+        <v>8.708249656365624</v>
       </c>
       <c r="H26">
-        <v>4.783940551731857</v>
+        <v>4.242410877197387</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1119,25 +1155,25 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>1.949783176328272</v>
+        <v>6.713185193158625</v>
       </c>
       <c r="C27">
-        <v>2.105280022224923</v>
+        <v>8.141021577480652</v>
       </c>
       <c r="D27">
-        <v>2.481670136449284</v>
+        <v>7.940461459093624</v>
       </c>
       <c r="E27">
-        <v>2.442748836958846</v>
+        <v>9.81815984328134</v>
       </c>
       <c r="F27">
-        <v>2.405991102300841</v>
+        <v>7.460288675314453</v>
       </c>
       <c r="G27">
-        <v>4.944695869096992</v>
+        <v>13.93168371463489</v>
       </c>
       <c r="H27">
-        <v>2.546514829326131</v>
+        <v>7.583997110079882</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1145,25 +1181,25 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>3.813900408824891</v>
+        <v>4.048160082848506</v>
       </c>
       <c r="C28">
-        <v>4.283469479111059</v>
+        <v>4.401410585679799</v>
       </c>
       <c r="D28">
-        <v>4.466609834644574</v>
+        <v>5.037612213839854</v>
       </c>
       <c r="E28">
-        <v>5.439031193510828</v>
+        <v>5.026297681569508</v>
       </c>
       <c r="F28">
-        <v>4.111096032509511</v>
+        <v>5.402769610129014</v>
       </c>
       <c r="G28">
-        <v>8.708249656365624</v>
+        <v>9.771289955294524</v>
       </c>
       <c r="H28">
-        <v>4.242410877197387</v>
+        <v>5.918517984971906</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1171,25 +1207,25 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>6.713185193158625</v>
+        <v>2.854537961624078</v>
       </c>
       <c r="C29">
-        <v>8.141021577480652</v>
+        <v>3.011184218556766</v>
       </c>
       <c r="D29">
-        <v>7.940461459093624</v>
+        <v>3.763264091193293</v>
       </c>
       <c r="E29">
-        <v>9.81815984328134</v>
+        <v>3.328136019679806</v>
       </c>
       <c r="F29">
-        <v>7.460288675314453</v>
+        <v>3.897988804304473</v>
       </c>
       <c r="G29">
-        <v>13.93168371463489</v>
+        <v>8.370949485005985</v>
       </c>
       <c r="H29">
-        <v>7.583997110079882</v>
+        <v>4.143283003541516</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1197,25 +1233,25 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>4.048160082848506</v>
+        <v>2.614024842371244</v>
       </c>
       <c r="C30">
-        <v>4.401410585679799</v>
+        <v>2.879234190256763</v>
       </c>
       <c r="D30">
-        <v>5.037612213839854</v>
+        <v>3.270838029265099</v>
       </c>
       <c r="E30">
-        <v>5.026297681569508</v>
+        <v>2.976533590551912</v>
       </c>
       <c r="F30">
-        <v>5.402769610129014</v>
+        <v>4.222930734622921</v>
       </c>
       <c r="G30">
-        <v>9.771289955294524</v>
+        <v>8.148654942675796</v>
       </c>
       <c r="H30">
-        <v>5.918517984971906</v>
+        <v>4.791569641271654</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1223,25 +1259,25 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>2.854537961624078</v>
+        <v>3.803530450850101</v>
       </c>
       <c r="C31">
-        <v>3.011184218556766</v>
+        <v>4.216691840142282</v>
       </c>
       <c r="D31">
-        <v>3.763264091193293</v>
+        <v>5.077745671720815</v>
       </c>
       <c r="E31">
-        <v>3.328136019679806</v>
+        <v>4.249975694666141</v>
       </c>
       <c r="F31">
-        <v>3.897988804304473</v>
+        <v>5.705403420147164</v>
       </c>
       <c r="G31">
-        <v>8.370949485005985</v>
+        <v>14.59728241938662</v>
       </c>
       <c r="H31">
-        <v>4.143283003541516</v>
+        <v>6.492009034471958</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1249,25 +1285,25 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>2.614024842371244</v>
+        <v>7.653380467414173</v>
       </c>
       <c r="C32">
-        <v>2.879234190256763</v>
+        <v>7.822921685943003</v>
       </c>
       <c r="D32">
-        <v>3.270838029265099</v>
+        <v>9.674228924905531</v>
       </c>
       <c r="E32">
-        <v>2.976533590551912</v>
+        <v>8.803983992424913</v>
       </c>
       <c r="F32">
-        <v>4.222930734622921</v>
+        <v>12.95754090016937</v>
       </c>
       <c r="G32">
-        <v>8.148654942675796</v>
+        <v>23.18773127215085</v>
       </c>
       <c r="H32">
-        <v>4.791569641271654</v>
+        <v>13.57810553921473</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1275,25 +1311,25 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>3.803530450850101</v>
+        <v>3.874509249795559</v>
       </c>
       <c r="C33">
-        <v>4.216691840142282</v>
+        <v>4.416247851523075</v>
       </c>
       <c r="D33">
-        <v>5.077745671720815</v>
+        <v>4.569732211020312</v>
       </c>
       <c r="E33">
-        <v>4.249975694666141</v>
+        <v>4.346785482871878</v>
       </c>
       <c r="F33">
-        <v>5.705403420147164</v>
+        <v>6.931098546566532</v>
       </c>
       <c r="G33">
-        <v>14.59728241938662</v>
+        <v>10.69638219115104</v>
       </c>
       <c r="H33">
-        <v>6.492009034471958</v>
+        <v>8.281799721061425</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1301,25 +1337,25 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>7.653380467414173</v>
+        <v>2.465058523066912</v>
       </c>
       <c r="C34">
-        <v>7.822921685943003</v>
+        <v>2.906747831228417</v>
       </c>
       <c r="D34">
-        <v>9.674228924905531</v>
+        <v>3.231254720572716</v>
       </c>
       <c r="E34">
-        <v>8.803983992424913</v>
+        <v>3.339176480367195</v>
       </c>
       <c r="F34">
-        <v>12.95754090016937</v>
+        <v>3.007951590333815</v>
       </c>
       <c r="G34">
-        <v>23.18773127215085</v>
+        <v>6.446286011212465</v>
       </c>
       <c r="H34">
-        <v>13.57810553921473</v>
+        <v>3.163177105397811</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1327,25 +1363,25 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>3.874509249795559</v>
+        <v>6.733447271752872</v>
       </c>
       <c r="C35">
-        <v>4.416247851523075</v>
+        <v>7.041238558711219</v>
       </c>
       <c r="D35">
-        <v>4.569732211020312</v>
+        <v>8.642103573234513</v>
       </c>
       <c r="E35">
-        <v>4.346785482871878</v>
+        <v>9.209388212771792</v>
       </c>
       <c r="F35">
-        <v>6.931098546566532</v>
+        <v>7.770223122544827</v>
       </c>
       <c r="G35">
-        <v>10.69638219115104</v>
+        <v>16.48640655601255</v>
       </c>
       <c r="H35">
-        <v>8.281799721061425</v>
+        <v>8.412073140280437</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1353,25 +1389,25 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>2.465058523066912</v>
+        <v>5.292400995243164</v>
       </c>
       <c r="C36">
-        <v>2.906747831228417</v>
+        <v>6.479941609750377</v>
       </c>
       <c r="D36">
-        <v>3.231254720572716</v>
+        <v>7.467712349746962</v>
       </c>
       <c r="E36">
-        <v>3.339176480367195</v>
+        <v>6.87200102477091</v>
       </c>
       <c r="F36">
-        <v>3.007951590333815</v>
+        <v>6.676211203285844</v>
       </c>
       <c r="G36">
-        <v>6.446286011212465</v>
+        <v>14.22801035261914</v>
       </c>
       <c r="H36">
-        <v>3.163177105397811</v>
+        <v>6.947605056588654</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1379,25 +1415,25 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>6.733447271752872</v>
+        <v>3.943963121034735</v>
       </c>
       <c r="C37">
-        <v>7.041238558711219</v>
+        <v>4.799529697370294</v>
       </c>
       <c r="D37">
-        <v>8.642103573234513</v>
+        <v>5.086444217513406</v>
       </c>
       <c r="E37">
-        <v>9.209388212771792</v>
+        <v>5.349854327740392</v>
       </c>
       <c r="F37">
-        <v>7.770223122544827</v>
+        <v>4.78747451007249</v>
       </c>
       <c r="G37">
-        <v>16.48640655601255</v>
+        <v>10.31366216952947</v>
       </c>
       <c r="H37">
-        <v>8.412073140280437</v>
+        <v>4.987355508443785</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1405,76 +1441,24 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>5.292400995243164</v>
+        <v>4.44405039615342</v>
       </c>
       <c r="C38">
-        <v>6.479941609750377</v>
+        <v>5.066299382079904</v>
       </c>
       <c r="D38">
-        <v>7.467712349746962</v>
+        <v>5.761777935280979</v>
       </c>
       <c r="E38">
-        <v>6.87200102477091</v>
+        <v>5.864238015726754</v>
       </c>
       <c r="F38">
-        <v>6.676211203285844</v>
+        <v>5.490309743093337</v>
       </c>
       <c r="G38">
-        <v>14.22801035261914</v>
+        <v>11.46623228938241</v>
       </c>
       <c r="H38">
-        <v>6.947605056588654</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39">
-        <v>3.943963121034735</v>
-      </c>
-      <c r="C39">
-        <v>4.799529697370294</v>
-      </c>
-      <c r="D39">
-        <v>5.086444217513406</v>
-      </c>
-      <c r="E39">
-        <v>5.349854327740392</v>
-      </c>
-      <c r="F39">
-        <v>4.78747451007249</v>
-      </c>
-      <c r="G39">
-        <v>10.31366216952947</v>
-      </c>
-      <c r="H39">
-        <v>4.987355508443785</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40">
-        <v>4.44405039615342</v>
-      </c>
-      <c r="C40">
-        <v>5.066299382079904</v>
-      </c>
-      <c r="D40">
-        <v>5.761777935280979</v>
-      </c>
-      <c r="E40">
-        <v>5.864238015726754</v>
-      </c>
-      <c r="F40">
-        <v>5.490309743093337</v>
-      </c>
-      <c r="G40">
-        <v>11.46623228938241</v>
-      </c>
-      <c r="H40">
         <v>5.781800642162141</v>
       </c>
     </row>
